--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.26.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.26.xlsx
@@ -67,10 +67,10 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>הוא הגיע אתך.</t>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1196,7 +1196,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1269,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1434,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1647,7 +1647,7 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1798,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1941,7 +1941,7 @@
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1952,10 +1952,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2036,7 +2036,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2053,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2221,7 +2221,7 @@
         <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
